--- a/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex7,8.xlsx
+++ b/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex7,8.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>7. Dla jednego z tych punktów, o współrzędnych pomiarowych UHi i Bni( alfai ), obliczyć przykładową wartość gammai na podstawie wzoru UH = gamma IS Bn. Uwzględniając dokładności mierników, oszacować niepewność czułości polowej hallotronu oraz porównać i omówić udziały niepewności cząstkowych. Obliczenia wykonać po unormowaniu jednostek wszystkich wielkości występujących we wzorze.</t>
   </si>
@@ -65,17 +65,22 @@
   <si>
     <t>Zgodnie z powyższym cytatem liczyłem czułość polową.</t>
   </si>
+  <si>
+    <t>Obliczenia wykonuję dla punktu nr 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="171" formatCode="0.000E+00"/>
-    <numFmt numFmtId="172" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.0E+00"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -314,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -326,64 +331,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +413,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="445507" cy="172227"/>
@@ -573,11 +579,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>54220</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>54219</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>33704</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2516286" cy="264688"/>
+    <xdr:ext cx="2533954" cy="263598"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -587,8 +593,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3014297" y="993531"/>
-              <a:ext cx="2516286" cy="264688"/>
+              <a:off x="3016822" y="1183273"/>
+              <a:ext cx="2533954" cy="263598"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -634,18 +640,49 @@
               </a:pPr>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝛾</m:t>
-                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝛾</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>6</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
                   <m:r>
                     <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -867,6 +904,18 @@
                     </a:rPr>
                     <m:t>=</m:t>
                   </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
                 </m:oMath>
               </a14:m>
               <a:r>
@@ -886,8 +935,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3014297" y="993531"/>
-              <a:ext cx="2516286" cy="264688"/>
+              <a:off x="3016822" y="1183273"/>
+              <a:ext cx="2533954" cy="263598"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -944,6 +993,18 @@
                 <a:t>𝛾</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_6</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
@@ -1086,6 +1147,18 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100"/>
@@ -1103,10 +1176,10 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>41765</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2423420" cy="243849"/>
+    <xdr:ext cx="2455288" cy="243849"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1116,8 +1189,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3001842" y="1291004"/>
-              <a:ext cx="2423420" cy="243849"/>
+              <a:off x="3004368" y="1479988"/>
+              <a:ext cx="2455288" cy="243849"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1247,6 +1320,18 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
                         <m:t>0.5∗15</m:t>
                       </m:r>
                     </m:num>
@@ -1269,7 +1354,7 @@
               </a14:m>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
-                <a:t>=0.75/100= 0.0075</a:t>
+                <a:t>= 0.75/100= 0.0075</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1283,8 +1368,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3001842" y="1291004"/>
-              <a:ext cx="2423420" cy="243849"/>
+              <a:off x="3004368" y="1479988"/>
+              <a:ext cx="2455288" cy="243849"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1331,11 +1416,11 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(0.5∗15)/100</a:t>
+                <a:t>( 0.5∗15)/100</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
-                <a:t>=0.75/100= 0.0075</a:t>
+                <a:t>= 0.75/100= 0.0075</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1348,12 +1433,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>75934</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>29236</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4827369" cy="395725"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1869,7 +1954,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -2068,12 +2153,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>36635</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>80047</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3110756" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -2109,7 +2194,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSup>
@@ -2380,7 +2464,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -2585,12 +2669,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>75114</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>172036</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="597279" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -2717,7 +2801,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -2780,12 +2864,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>167309</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>172847</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1552575" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -3073,7 +3157,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -3236,10 +3320,10 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>41764</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>35901</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2444836" cy="243849"/>
+    <xdr:ext cx="2476704" cy="243849"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -3249,8 +3333,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3001841" y="1589209"/>
-              <a:ext cx="2444836" cy="243849"/>
+              <a:off x="3004367" y="1763539"/>
+              <a:ext cx="2476704" cy="243849"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3402,7 +3486,7 @@
               </a14:m>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
-                <a:t>=100/100=1[mV]</a:t>
+                <a:t>= 100/100=1[mV]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3416,8 +3500,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3001841" y="1589209"/>
-              <a:ext cx="2444836" cy="243849"/>
+              <a:off x="3004367" y="1763539"/>
+              <a:ext cx="2476704" cy="243849"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3468,7 +3552,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
-                <a:t>=100/100=1[mV]</a:t>
+                <a:t>= 100/100=1[mV]</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3481,12 +3565,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95648</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>146</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3802275" cy="336892"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -3978,7 +4062,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -4268,12 +4352,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>73271</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2432538" cy="190501"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -4522,7 +4606,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4535,16 +4619,7 @@
                         <a:rPr lang="en-US">
                           <a:effectLst/>
                         </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US">
-                          <a:effectLst/>
-                        </a:rPr>
-                        <m:t> </m:t>
+                        <m:t>  </m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -4609,7 +4684,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13"/>
@@ -4870,12 +4945,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>87569</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>14204</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4841618" cy="414422"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -4951,23 +5026,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝜕</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝛾</m:t>
+                        <m:t>𝜕𝛾</m:t>
                       </m:r>
                     </m:num>
                     <m:den>
@@ -4977,7 +5040,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5061,7 +5124,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5235,7 +5298,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5424,7 +5487,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5512,7 +5575,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6026,7 +6089,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -6783,13 +6846,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>20240</xdr:rowOff>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45088</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2372188" cy="350481"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -6797,7 +6860,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="3855088"/>
+              <a:off x="33130" y="3879936"/>
               <a:ext cx="2372188" cy="350481"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6868,23 +6931,11 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝜕</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝛾</m:t>
+                              <m:t>𝜕𝛾</m:t>
                             </m:r>
                           </m:num>
                           <m:den>
@@ -6894,7 +6945,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7072,7 +7123,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>-03</m:t>
+                              <m:t>−03</m:t>
                             </m:r>
                           </m:den>
                         </m:f>
@@ -7159,7 +7210,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>-05</m:t>
+                      <m:t>−05</m:t>
                     </m:r>
                     <m:r>
                       <m:rPr>
@@ -7176,7 +7227,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -7184,7 +7235,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="3855088"/>
+              <a:off x="33130" y="3879936"/>
               <a:ext cx="2372188" cy="350481"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7231,23 +7282,101 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕𝛾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕𝐼_𝑠 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>))〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛾</a:t>
+                <a:t>"4.32746E−03</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -7259,120 +7388,6 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐼_𝑠 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>))〗^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>4.32746E-03</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
                 <a:t>" )〗^2=</a:t>
               </a:r>
               <a:r>
@@ -7385,19 +7400,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1.87269E-05</a:t>
+                <a:t>"1.87269E−05</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0">
@@ -7421,12 +7424,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22622</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>73819</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2403030" cy="268343"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -7512,23 +7515,11 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝜕</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
                               <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>𝛾</m:t>
+                            <m:t>𝜕𝛾</m:t>
                           </m:r>
                         </m:num>
                         <m:den>
@@ -7538,7 +7529,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -7792,21 +7783,14 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>-07</m:t>
+                    <m:t>−07</m:t>
                   </m:r>
                   <m:r>
                     <m:rPr>
                       <m:nor/>
                     </m:rPr>
                     <a:rPr lang="en-US"/>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:r>
-                    <m:rPr>
-                      <m:nor/>
-                    </m:rPr>
-                    <a:rPr lang="en-US"/>
-                    <m:t> </m:t>
+                    <m:t>  </m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -7815,7 +7799,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -8087,12 +8071,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4886325" cy="394242"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -8168,23 +8152,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝜕</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝛾</m:t>
+                        <m:t>𝜕𝛾</m:t>
                       </m:r>
                     </m:num>
                     <m:den>
@@ -8194,7 +8166,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8278,7 +8250,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8452,7 +8424,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8641,7 +8613,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8729,7 +8701,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -9113,7 +9085,7 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>-04</m:t>
+                    <m:t>−04</m:t>
                   </m:r>
                   <m:r>
                     <m:rPr>
@@ -9178,7 +9150,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -9866,12 +9838,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>67994</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>187299</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4831427" cy="419919"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -9947,23 +9919,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝜕</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝛾</m:t>
+                        <m:t>𝜕𝛾</m:t>
                       </m:r>
                     </m:num>
                     <m:den>
@@ -9973,7 +9933,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10057,7 +10017,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10231,7 +10191,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10444,7 +10404,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10501,7 +10461,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10937,7 +10897,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -11665,12 +11625,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>75010</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2520754" cy="349583"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -11761,23 +11721,11 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝜕</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝛾</m:t>
+                              <m:t>𝜕𝛾</m:t>
                             </m:r>
                           </m:num>
                           <m:den>
@@ -11787,7 +11735,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -11918,7 +11866,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>- </m:t>
+                          <m:t>− </m:t>
                         </m:r>
                         <m:r>
                           <m:rPr>
@@ -11963,7 +11911,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>-01 </m:t>
+                          <m:t>−01 </m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -12048,7 +11996,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>-01</m:t>
+                      <m:t>−01</m:t>
                     </m:r>
                     <m:r>
                       <m:rPr>
@@ -12065,7 +12013,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -12351,9 +12299,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>69124</xdr:rowOff>
+      <xdr:colOff>79113</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5441674" cy="1239528"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12365,7 +12313,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="33130" y="5808972"/>
+              <a:off x="79113" y="6237382"/>
               <a:ext cx="5441674" cy="1239528"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -12476,18 +12424,49 @@
                         </m:ctrlPr>
                       </m:dPr>
                       <m:e>
-                        <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝛾</m:t>
-                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝛾</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>6</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                       </m:e>
                     </m:d>
                     <m:r>
@@ -12567,23 +12546,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝜕</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>𝛾</m:t>
+                                  <m:t>𝜕𝛾</m:t>
                                 </m:r>
                               </m:num>
                               <m:den>
@@ -12593,7 +12560,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -12799,23 +12766,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝜕</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>𝛾</m:t>
+                                  <m:t>𝜕𝛾</m:t>
                                 </m:r>
                               </m:num>
                               <m:den>
@@ -12825,7 +12780,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13031,23 +12986,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝜕</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>𝛾</m:t>
+                                  <m:t>𝜕𝛾</m:t>
                                 </m:r>
                               </m:num>
                               <m:den>
@@ -13057,7 +13000,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -13226,7 +13169,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13242,7 +13185,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13255,7 +13198,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13304,7 +13247,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>-03</m:t>
+                              <m:t>−03</m:t>
                             </m:r>
                             <m:r>
                               <m:rPr>
@@ -13319,7 +13262,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>*0.0044</m:t>
+                              <m:t>∗0.0044</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -13327,7 +13270,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13341,7 +13284,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13355,7 +13298,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13369,7 +13312,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13382,7 +13325,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13394,7 +13337,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13455,19 +13398,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>∗1.3</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>)</m:t>
+                              <m:t>∗1.3)</m:t>
                             </m:r>
                           </m:e>
                           <m:sup>
@@ -13477,7 +13408,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13491,7 +13422,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13505,7 +13436,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13518,7 +13449,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13537,7 +13468,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>- </m:t>
+                              <m:t>− </m:t>
                             </m:r>
                             <m:r>
                               <m:rPr>
@@ -13582,7 +13513,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>-01 </m:t>
+                              <m:t>−01 </m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -13594,19 +13525,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>∗0.58</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>)</m:t>
+                              <m:t>∗0.58)</m:t>
                             </m:r>
                           </m:e>
                           <m:sup>
@@ -13616,7 +13535,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13668,7 +13587,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -13684,7 +13603,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13697,7 +13616,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13746,7 +13665,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-05</m:t>
+                            <m:t>−05</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -13761,7 +13680,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13775,7 +13694,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13789,7 +13708,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -13803,7 +13722,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13816,23 +13735,11 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>(</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
                               <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>−</m:t>
+                            <m:t>(−</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -13877,7 +13784,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-03</m:t>
+                            <m:t>−03</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -13892,7 +13799,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13906,7 +13813,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13920,7 +13827,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -13934,7 +13841,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13947,7 +13854,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -13966,7 +13873,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-1.88</m:t>
+                            <m:t>−1.88</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -13996,7 +13903,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-01</m:t>
+                            <m:t>−01</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -14011,7 +13918,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -14025,7 +13932,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -14060,7 +13967,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14111,7 +14018,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>-10</m:t>
+                        <m:t>−10</m:t>
                       </m:r>
                       <m:r>
                         <m:rPr>
@@ -14126,7 +14033,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14175,7 +14082,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>-06</m:t>
+                        <m:t>−06</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -14183,7 +14090,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14238,7 +14145,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14351,7 +14258,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="33130" y="5808972"/>
+              <a:off x="79113" y="6237382"/>
               <a:ext cx="5441674" cy="1239528"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -14444,7 +14351,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝛾)</a:t>
+                <a:t>𝛾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_6 )</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -14468,9 +14387,309 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>〖(𝜕𝛾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕𝐼_𝑠 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑢(𝐼_𝑠))〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(𝜕𝛾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕𝐵_𝑛 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑢(𝐵_𝑛))〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(𝜕𝛾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕𝑈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐻 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑢(𝑈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐻))〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>〖(</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"4.32746E−03</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -14480,7 +14699,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝜕</a:t>
+                <a:t>∗0.0044</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -14492,7 +14711,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝛾</a:t>
+                <a:t>" )〗^2</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -14504,7 +14723,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>/(</a:t>
+                <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -14512,11 +14731,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝜕</a:t>
+                <a:t>"7.90043E−04 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -14528,7 +14771,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐼_𝑠 </a:t>
+                <a:t>" ∗1.3)〗^2</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -14540,7 +14783,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)</a:t>
+                <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -14552,7 +14795,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 𝑢(𝐼_𝑠))〗^2</a:t>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>− </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -14560,11 +14827,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3.24560E−01 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -14576,31 +14843,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛾</a:t>
+                <a:t>" ∗0.58)〗^2 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -14609,438 +14852,6 @@
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐵_𝑛 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 𝑢(𝐵_𝑛))〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛾</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑈</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐻 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 𝑢(𝑈</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐻))〗^2 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"4.32746E-03</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>*0.0044" )〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−"7.90043E−04 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" ∗1.3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖("</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>- </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>3.24560E-01</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" ∗0.58</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)〗^2 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15080,35 +14891,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"1.90E-05</a:t>
+                <a:t>"1.90E−05</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -15120,59 +14931,47 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" )〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"1.03E-03</a:t>
+                <a:t>"1.03E−03</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -15184,47 +14983,47 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" )〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"-1.88E-01</a:t>
+                <a:t>"−1.88E−01</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -15236,14 +15035,50 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" )〗^2 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -15252,43 +15087,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"3.62553E-10</a:t>
+                <a:t>"3.62553E−10</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -15300,11 +15099,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" +</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" +</a:t>
+                <a:t>"1.05484E−06</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -15312,11 +15123,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"1.05484E-06" </a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -15324,7 +15135,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15347,7 +15158,25 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -15356,30 +15185,6 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
                 <a:t>=</a:t>
               </a:r>
               <a:r>
@@ -15388,7 +15193,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15411,16 +15216,22 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0">
@@ -15489,6 +15300,517 @@
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>48610</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81455</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1069780" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="48610" y="6006662"/>
+              <a:ext cx="1069780" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝛾</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>6</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝛾</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>6</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐼</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑠</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>, </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑛</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>, </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑈</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐻</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="48610" y="6006662"/>
+              <a:ext cx="1069780" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐼_𝑠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵_𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -16430,23 +16752,23 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>486509</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>70338</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2390719" cy="285751"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="2771775" cy="285751"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2919047" y="1022838"/>
-              <a:ext cx="2390719" cy="285751"/>
+              <a:off x="76200" y="2019300"/>
+              <a:ext cx="2771775" cy="285751"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16667,6 +16989,34 @@
                 </a:rPr>
                 <a:t>353.2944756</a:t>
               </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>353</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
               <a:r>
                 <a:rPr lang="en-US"/>
                 <a:t> </a:t>
@@ -16676,16 +17026,16 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2919047" y="1022838"/>
-              <a:ext cx="2390719" cy="285751"/>
+              <a:off x="76200" y="2019300"/>
+              <a:ext cx="2771775" cy="285751"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16813,400 +17163,28 @@
                 <a:t>353.2944756</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2390719" cy="285751"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="76200" y="2009775"/>
-              <a:ext cx="2390719" cy="285751"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝛾</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐵</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>∆</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑈</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝐻</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>∆</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐵</m:t>
-                      </m:r>
-                    </m:den>
-                  </m:f>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:f>
-                    <m:fPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:fPr>
-                    <m:num>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>352.08</m:t>
-                      </m:r>
-                    </m:num>
-                    <m:den>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>0.996562427</m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US"/>
-                        <m:t> </m:t>
-                      </m:r>
-                    </m:den>
-                  </m:f>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>= </a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>353.2944756</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="76200" y="2009775"/>
-              <a:ext cx="2390719" cy="285751"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛾_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐵</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>∆𝑈〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐻/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>∆𝐵</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=352.08/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"0.996562427</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>= </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>353.2944756</a:t>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>353</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US"/>
@@ -17913,8 +17891,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4945673" cy="335573"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -18516,7 +18494,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -18753,8 +18731,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5293702" cy="238125"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -19336,7 +19314,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -19348,7 +19326,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -19411,7 +19389,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -19663,8 +19641,8 @@
       <xdr:rowOff>156064</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2853104" cy="266700"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -19968,7 +19946,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -19980,7 +19958,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -20010,7 +19988,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -20268,8 +20246,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4824046" cy="400050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -20824,7 +20802,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14"/>
@@ -21261,9 +21239,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>108438</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>84992</xdr:rowOff>
+      <xdr:colOff>49823</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165588</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5610225" cy="1343025"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21275,7 +21253,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="108438" y="4297973"/>
+              <a:off x="49823" y="4569069"/>
               <a:ext cx="5610225" cy="1343025"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -21508,7 +21486,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21565,7 +21543,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21795,7 +21773,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21852,7 +21830,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -22088,19 +22066,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>∗</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>0.58</m:t>
+                            <m:t>∗0.58</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -22109,16 +22075,7 @@
                             <a:rPr lang="en-US">
                               <a:effectLst/>
                             </a:rPr>
-                            <m:t> </m:t>
-                          </m:r>
-                          <m:r>
-                            <m:rPr>
-                              <m:nor/>
-                            </m:rPr>
-                            <a:rPr lang="en-US">
-                              <a:effectLst/>
-                            </a:rPr>
-                            <m:t> </m:t>
+                            <m:t>  </m:t>
                           </m:r>
                           <m:r>
                             <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -22242,19 +22199,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>∗</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>0.96</m:t>
+                            <m:t>∗0.96</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -22322,7 +22267,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -22338,7 +22283,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -22351,7 +22296,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -22385,7 +22330,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -22399,7 +22344,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -22413,7 +22358,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -22427,7 +22372,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -22440,7 +22385,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -22459,7 +22404,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-339.3726148</m:t>
+                            <m:t>−339.3726148</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -22474,7 +22419,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -22488,7 +22433,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -22551,7 +22496,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -22587,7 +22532,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -22623,7 +22568,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -22743,7 +22688,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="108438" y="4297973"/>
+              <a:off x="49823" y="4569069"/>
               <a:ext cx="5610225" cy="1343025"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -22892,7 +22837,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -22940,13 +22885,97 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕〖∆𝑈〗_𝐻 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑢(〖∆𝑈〗_𝐻))〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>𝜕</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -22956,7 +22985,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖∆𝑈〗_𝐻 </a:t>
+                <a:t>𝐵</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -22968,7 +22997,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)</a:t>
+                <a:t>)/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -22980,115 +23009,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 𝑢(〖∆𝑈〗_𝐻))〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛾_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐵</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∆𝐵</a:t>
+                <a:t>𝜕∆𝐵</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -23249,7 +23170,25 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" ∗</a:t>
+                <a:t>" ∗0.58</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>  </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -23257,11 +23196,59 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>0.58</a:t>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -23273,6 +23260,42 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>354.5131404</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" ∗0.96</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>"</a:t>
               </a:r>
               <a:r>
@@ -23282,194 +23305,62 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" i="0">
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL">
                   <a:effectLst/>
                 </a:rPr>
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="pl-PL" b="0" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>354.5131404</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" ∗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0.96</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )〗^2 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" b="0" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -23497,47 +23388,47 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" )〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"-339.3726148</a:t>
+                <a:t>"−339.3726148</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -23549,7 +23440,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -23561,7 +23452,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -23613,7 +23504,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -23641,7 +23532,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -23664,36 +23555,30 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -23795,6 +23680,458 @@
             </a:p>
             <a:p>
               <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41031</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1074397" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="41031" y="4222506"/>
+              <a:ext cx="1074397" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝛾</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝛾</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>∆</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑈</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐻</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>, </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>∆</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝐵</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="41031" y="4222506"/>
+              <a:ext cx="1074397" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛾_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖∆𝑈〗_𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>, </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>")</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -24068,10 +24405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24091,266 +24428,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="22"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D7" s="26"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="21">
         <v>12</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B9" s="14">
         <v>-0.41081288599999999</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B10" s="22">
         <f>-0.410812886*1000</f>
         <v>-410.81288599999999</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B11" s="15">
         <v>152.19999999999999</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J11" s="34"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="32"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J12" s="35"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J15" s="33"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="J20" s="32"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="J22" s="32"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="9"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I26" s="32"/>
-      <c r="J26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="D26" s="9"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="19"/>
+      <c r="L26" s="19"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="J28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="J28" s="19"/>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I29" s="32"/>
-      <c r="J29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="19"/>
+      <c r="L29" s="19"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:H5"/>
-    <mergeCell ref="A45:H46"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="C6:D10"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H43"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:H40"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A46:H47"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="C7:D11"/>
+    <mergeCell ref="A43:H44"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A41:H42"/>
+    <mergeCell ref="A40:H40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24362,8 +24710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24377,39 +24725,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -24418,150 +24766,150 @@
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3">
         <v>182.28</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>-169.8</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>352.08000000000004</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>0.49828121348239252</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3">
         <v>-0.49828121348239252</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="4">
         <v>0.99656242696478503</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
